--- a/Discharge/RatingCurves/Stn4_update2023-12-19.xlsx
+++ b/Discharge/RatingCurves/Stn4_update2023-12-19.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/LongTermData_CayambeCoca/Discharge/RatingCurves/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/Discharge/RatingCurves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292C144F-EB53-BA4E-BED0-D3C1BE59FD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{292C144F-EB53-BA4E-BED0-D3C1BE59FD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF9824D1-E2FA-4DC9-AB49-E3C80B528159}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="1320" windowWidth="27520" windowHeight="16900" xr2:uid="{DBDAB811-2C43-4D86-A775-8D8E9E65A044}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{DBDAB811-2C43-4D86-A775-8D8E9E65A044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$16:$D$25</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$16:$E$25</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -77,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1527,6 +1524,822 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.40346697287839023"/>
+                  <c:y val="1.8101851851851852E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$4:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.523156E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6557189999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0850210000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7209979999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7080699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4942750000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3386029999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1690000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2481930000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5401620000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.189033E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.6004999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6879999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8890000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1620999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1710000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1900000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1592400000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.734E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6490000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.031E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.823E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD02-4B56-8B4B-7D7F28867D94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1289620608"/>
+        <c:axId val="1289618208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1289620608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1289618208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1289618208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1289620608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$16:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>0.2361743</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2217962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.135273</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13346810000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.626548E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12646569999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13220670000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1548649</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19049389999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$16:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>9.8879999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1804999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6775000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4605999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7767500000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2014999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8125000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8740000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1280000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CFB-4E60-990F-5029E63DEA59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1055241696"/>
+        <c:axId val="1055233056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1055241696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1055233056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1055233056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1055241696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1647,6 +2460,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2680,6 +3573,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3235,16 +5160,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>204304</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>97182</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>125620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>164132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>60739</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>156817</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>362623</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>113393</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3271,16 +5196,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>292652</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>119269</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>513915</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>43741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>5522</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>46382</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>239779</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22678</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3300,6 +5225,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>395537</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>131743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>71151</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>51871</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97EA4D6A-5A40-0A72-8613-C91CAB1ADAE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>250176</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>124093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>537838</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>67173</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2BDBA6E-E391-C67E-B327-C201D9A09F56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3607,21 +5609,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169D4A9D-5791-420D-B1BF-381DB74DB40B}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView zoomScale="56" workbookViewId="0">
+      <selection sqref="A1:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3638,7 +5640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>44357</v>
       </c>
@@ -3656,7 +5658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="16">
       <c r="A4" s="2">
         <v>44358</v>
       </c>
@@ -3676,7 +5678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="16">
       <c r="A5" s="2">
         <v>44361</v>
       </c>
@@ -3693,7 +5695,7 @@
         <v>3.6879999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" s="2">
         <v>44365</v>
       </c>
@@ -3710,7 +5712,7 @@
         <v>4.8890000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="2">
         <v>44368</v>
       </c>
@@ -3730,7 +5732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="2">
         <v>44372</v>
       </c>
@@ -3747,7 +5749,7 @@
         <v>1.1620999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="2">
         <v>44375</v>
       </c>
@@ -3764,7 +5766,7 @@
         <v>7.1710000000000003E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="2">
         <v>44382</v>
       </c>
@@ -3781,7 +5783,7 @@
         <v>7.1900000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="2">
         <v>44386</v>
       </c>
@@ -3798,7 +5800,7 @@
         <v>9.1592400000000008E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="16">
       <c r="A12" s="2">
         <v>44389</v>
       </c>
@@ -3815,7 +5817,7 @@
         <v>2.734E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="16">
       <c r="A13" s="2">
         <v>44390</v>
       </c>
@@ -3832,7 +5834,7 @@
         <v>1.6490000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="2">
         <v>44391</v>
       </c>
@@ -3849,7 +5851,7 @@
         <v>1.031E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="2">
         <v>44393</v>
       </c>
@@ -3866,7 +5868,7 @@
         <v>3.823E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="2">
         <v>44396</v>
       </c>
@@ -3883,7 +5885,7 @@
         <v>0.24984000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="16">
       <c r="A17" s="2">
         <v>44397</v>
       </c>
@@ -3900,7 +5902,7 @@
         <v>9.8879999999999996E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="16">
       <c r="A18" s="2">
         <v>44400</v>
       </c>
@@ -3917,7 +5919,7 @@
         <v>9.1804999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="16">
       <c r="A19" s="2">
         <v>44403</v>
       </c>
@@ -3934,7 +5936,7 @@
         <v>1.6775000000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="16">
       <c r="A20" s="2">
         <v>44404</v>
       </c>
@@ -3951,7 +5953,7 @@
         <v>1.4605999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="16">
       <c r="A21" s="2">
         <v>44489</v>
       </c>
@@ -3971,7 +5973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="16">
       <c r="A22" s="2">
         <v>44714</v>
       </c>
@@ -3988,7 +5990,7 @@
         <v>1.2014999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="16">
       <c r="A23" s="2">
         <v>44719</v>
       </c>
@@ -4005,7 +6007,7 @@
         <v>2.8125000000000003E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="16">
       <c r="A24" s="2">
         <v>44764</v>
       </c>
@@ -4022,7 +6024,7 @@
         <v>2.8740000000000005E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="16">
       <c r="A25" s="2">
         <v>44769</v>
       </c>
@@ -4042,7 +6044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15.5">
       <c r="D27" s="5">
         <v>0</v>
       </c>
@@ -4050,7 +6052,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15.5">
       <c r="D28" s="5">
         <v>0</v>
       </c>
@@ -4058,7 +6060,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15.5">
       <c r="D29" s="5">
         <v>0</v>
       </c>
@@ -4066,7 +6068,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15.5">
       <c r="D30" s="5">
         <v>0</v>
       </c>
@@ -4074,7 +6076,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15.5">
       <c r="D31" s="5">
         <v>0</v>
       </c>
@@ -4090,4 +6092,439 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3DF98E-6378-494B-A0D9-78911BF8E69C}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="83" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>44357</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3">
+        <v>3.5975E-3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16">
+      <c r="A4" s="2">
+        <v>44358</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.523156E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.6004999999999999E-3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16">
+      <c r="A5" s="2">
+        <v>44361</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.6557189999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>3.6879999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16">
+      <c r="A6" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.0850210000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>4.8890000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16">
+      <c r="A7" s="2">
+        <v>44368</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16">
+      <c r="A8" s="2">
+        <v>44372</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4.7209979999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.1620999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16">
+      <c r="A9" s="2">
+        <v>44375</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2.7080699999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>7.1710000000000003E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16">
+      <c r="A10" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3.4942750000000002E-2</v>
+      </c>
+      <c r="E10">
+        <v>7.1900000000000002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16">
+      <c r="A11" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4.3386029999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>9.1592400000000008E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16">
+      <c r="A12" s="2">
+        <v>44389</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D12" s="6">
+        <v>6.1690000000000002E-2</v>
+      </c>
+      <c r="E12">
+        <v>2.734E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16">
+      <c r="A13" s="2">
+        <v>44390</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5.2481930000000003E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.6490000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16">
+      <c r="A14" s="2">
+        <v>44391</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D14" s="6">
+        <v>3.5401620000000002E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.031E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16">
+      <c r="A15" s="2">
+        <v>44393</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2.189033E-2</v>
+      </c>
+      <c r="E15">
+        <v>3.823E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16">
+      <c r="A16" s="2">
+        <v>44396</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="16">
+      <c r="A17" s="2">
+        <v>44397</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.2361743</v>
+      </c>
+      <c r="E17">
+        <v>9.8879999999999996E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16">
+      <c r="A18" s="2">
+        <v>44400</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.2217962</v>
+      </c>
+      <c r="E18">
+        <v>9.1804999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16">
+      <c r="A19" s="2">
+        <v>44403</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.135273</v>
+      </c>
+      <c r="E19">
+        <v>1.6775000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16">
+      <c r="A20" s="2">
+        <v>44404</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.13346810000000001</v>
+      </c>
+      <c r="E20">
+        <v>1.4605999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16">
+      <c r="A21" s="2">
+        <v>44489</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6">
+        <v>9.626548E-2</v>
+      </c>
+      <c r="E21">
+        <v>1.7767500000000003E-3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16">
+      <c r="A22" s="2">
+        <v>44714</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.12646569999999999</v>
+      </c>
+      <c r="E22">
+        <v>1.2014999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16">
+      <c r="A23" s="2">
+        <v>44719</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.13220670000000001</v>
+      </c>
+      <c r="E23">
+        <v>2.8125000000000003E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16">
+      <c r="A24" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.1548649</v>
+      </c>
+      <c r="E24">
+        <v>2.8740000000000005E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16">
+      <c r="A25" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.19049389999999999</v>
+      </c>
+      <c r="E25">
+        <v>3.1280000000000002E-2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>